--- a/data/BPS_FH_Dataset/22/chords.xlsx
+++ b/data/BPS_FH_Dataset/22/chords.xlsx
@@ -315,8 +315,8 @@
   </sheetPr>
   <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K264" activeCellId="0" sqref="K264"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A209" activeCellId="0" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,7 +2147,7 @@
         <v>98</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>36</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>326</v>
